--- a/biology/Botanique/Plante_boussole/Plante_boussole.xlsx
+++ b/biology/Botanique/Plante_boussole/Plante_boussole.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Plante boussole est un nom vernaculaire, ambigu en français car il peut désigner différentes espèces de plantes de la famille des Composées appartenant aux genres Lactuca (laitues) et Silphium (silphies).
 </t>
@@ -511,9 +523,11 @@
           <t>Origine du nom</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ces espèces ont en commun la propriété d'orienter leurs feuilles selon l'axe nord-sud, dans un plan perpendiculaire au sol, ce qui les protège de la brûlure du soleil aux alentours de midi et limite l'évaporation[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ces espèces ont en commun la propriété d'orienter leurs feuilles selon l'axe nord-sud, dans un plan perpendiculaire au sol, ce qui les protège de la brûlure du soleil aux alentours de midi et limite l'évaporation,.
 </t>
         </is>
       </c>
@@ -542,11 +556,13 @@
           <t>Noms français et noms scientifiques correspondants</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Laitue scariole ou laitue sauvage, Lactuca serriola L.[1]
-Laitue vireuse ou laitue sauvage, Lactuca virosa L.[1]
-Silphies, Silphium laciniatum (en) L. et Silphium terebinthinaceum (en) Jacq[2].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Laitue scariole ou laitue sauvage, Lactuca serriola L.
+Laitue vireuse ou laitue sauvage, Lactuca virosa L.
+Silphies, Silphium laciniatum (en) L. et Silphium terebinthinaceum (en) Jacq.</t>
         </is>
       </c>
     </row>
